--- a/src/main/resources/flatsErrors.xlsx
+++ b/src/main/resources/flatsErrors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Illya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD24B1E-BC89-44B2-9544-244D85D26199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9250E42A-CA42-417D-9AAD-BC76ED17093D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7815" yWindow="2160" windowWidth="18735" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flats" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Number</t>
   </si>
@@ -74,19 +74,31 @@
     <t>Must be integer, the sum should be 100</t>
   </si>
   <si>
-    <t>sdfg</t>
+    <t>іфвп</t>
+  </si>
+  <si>
+    <t>House(Section)</t>
+  </si>
+  <si>
+    <t>House)Section(</t>
+  </si>
+  <si>
+    <t>(Section)House</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>ACTIVE</t>
   </si>
   <si>
-    <t>dsfg</t>
-  </si>
-  <si>
-    <t>Houce(Section)</t>
-  </si>
-  <si>
-    <t>hello</t>
+    <t>NOTACTIVE</t>
+  </si>
+  <si>
+    <t>fgh</t>
+  </si>
+  <si>
+    <t>sjdgs</t>
   </si>
 </sst>
 </file>
@@ -129,22 +141,22 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor indexed="31"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="solid">
         <fgColor indexed="31"/>
       </patternFill>
     </fill>
@@ -161,28 +173,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -497,15 +499,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="1" max="10" customWidth="true" width="23.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
@@ -565,105 +567,137 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="6">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6">
         <v>234</v>
       </c>
-      <c r="B3" s="16">
-        <v>345</v>
-      </c>
-      <c r="C3" s="16">
-        <v>35</v>
-      </c>
-      <c r="D3" s="16">
-        <v>345.23</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="C3" s="6">
+        <v>235</v>
+      </c>
+      <c r="D3" s="6">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="G3" s="16">
-        <v>235</v>
-      </c>
-      <c r="H3" s="16">
-        <v>354</v>
-      </c>
-      <c r="I3" s="16">
-        <v>34</v>
-      </c>
-      <c r="J3" s="16">
-        <v>354</v>
+      <c r="F3" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3534</v>
+      </c>
+      <c r="H3" s="6">
+        <v>234</v>
+      </c>
+      <c r="I3" s="6">
+        <v>3</v>
+      </c>
+      <c r="J3" s="6">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>2345.7600000000002</v>
-      </c>
-      <c r="B4" s="16">
-        <v>345.346</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="6">
+        <v>324</v>
+      </c>
+      <c r="B4" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="D4" s="16">
+      <c r="C4" s="6">
+        <v>346</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2634</v>
+      </c>
+      <c r="E4" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6">
         <v>345</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="15">
-        <v>345</v>
-      </c>
-      <c r="G4" s="16">
-        <v>345.34500000000003</v>
-      </c>
-      <c r="H4" s="16">
-        <v>345</v>
-      </c>
-      <c r="I4" s="16">
-        <v>34</v>
-      </c>
-      <c r="J4" s="16">
+      <c r="H4" s="6">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6">
         <v>4</v>
+      </c>
+      <c r="J4" s="6">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>25</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="A5" s="6">
+        <v>236.23</v>
+      </c>
+      <c r="B5" s="6">
+        <v>234</v>
+      </c>
+      <c r="C5" s="6">
+        <v>346</v>
+      </c>
+      <c r="D5" s="6">
+        <v>235.53</v>
+      </c>
+      <c r="E5" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="C5" s="16">
+      <c r="G5" s="6">
+        <v>235</v>
+      </c>
+      <c r="H5" s="6">
+        <v>234</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2435</v>
+      </c>
+      <c r="J5" s="5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>345</v>
       </c>
-      <c r="D5" s="16">
-        <v>345</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="16">
-        <v>435</v>
-      </c>
-      <c r="H5" s="16">
-        <v>543</v>
-      </c>
-      <c r="I5" s="16">
-        <v>3454</v>
-      </c>
-      <c r="J5" s="16">
-        <v>3</v>
+      <c r="B6" s="6">
+        <v>3245</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2354</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3264</v>
+      </c>
+      <c r="E6" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6">
+        <v>235</v>
+      </c>
+      <c r="H6" s="6">
+        <v>253</v>
+      </c>
+      <c r="I6" s="6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/flatsErrors.xlsx
+++ b/src/main/resources/flatsErrors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Illya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9250E42A-CA42-417D-9AAD-BC76ED17093D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CBE7FC-6376-4689-8B49-E68B1422C2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Number</t>
   </si>
@@ -74,31 +74,13 @@
     <t>Must be integer, the sum should be 100</t>
   </si>
   <si>
-    <t>іфвп</t>
-  </si>
-  <si>
-    <t>House(Section)</t>
-  </si>
-  <si>
-    <t>House)Section(</t>
-  </si>
-  <si>
-    <t>(Section)House</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>ACTIVE</t>
   </si>
   <si>
     <t>NOTACTIVE</t>
   </si>
   <si>
-    <t>fgh</t>
-  </si>
-  <si>
-    <t>sjdgs</t>
+    <t>A/C "Future"(1 Section)</t>
   </si>
 </sst>
 </file>
@@ -141,22 +123,22 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="none">
-        <fgColor indexed="31"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="31"/>
       </patternFill>
     </fill>
@@ -173,18 +155,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -502,12 +488,12 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" customWidth="true" width="23.42578125" collapsed="false"/>
+    <col min="1" max="10" customWidth="true" width="23.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
@@ -567,136 +553,136 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="9">
+        <v>543</v>
+      </c>
+      <c r="B3" s="10">
         <v>234</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="10">
         <v>235</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="10">
         <v>46</v>
       </c>
-      <c r="E3" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="E3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="10">
         <v>3534</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="10">
         <v>234</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="10">
         <v>3</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="10">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="9">
         <v>324</v>
       </c>
-      <c r="B4" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6">
-        <v>346</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="B4" s="10">
+        <v>345</v>
+      </c>
+      <c r="C4" s="10">
+        <v>346.53399999999999</v>
+      </c>
+      <c r="D4" s="10">
         <v>2634</v>
       </c>
-      <c r="E4" t="s" s="5">
+      <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="10">
         <v>345</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="10">
         <v>23</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="10">
         <v>4</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="10">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="9">
         <v>236.23</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="10">
         <v>234</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="10">
         <v>346</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="10">
         <v>235.53</v>
       </c>
-      <c r="E5" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="10">
         <v>235</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="10">
         <v>234</v>
       </c>
-      <c r="I5" s="5">
-        <v>2435</v>
-      </c>
-      <c r="J5" s="5">
-        <v>234</v>
+      <c r="I5" s="10">
+        <v>100</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="9">
         <v>345</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="10">
         <v>3245</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="10">
         <v>2354</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="10">
         <v>3264</v>
       </c>
-      <c r="E6" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="G6" s="6">
-        <v>235</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="E6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="9">
+        <v>242.42</v>
+      </c>
+      <c r="H6" s="9">
         <v>253</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="10">
         <v>2</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="10">
         <v>23</v>
       </c>
     </row>

--- a/src/main/resources/flatsErrors.xlsx
+++ b/src/main/resources/flatsErrors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Illya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CBE7FC-6376-4689-8B49-E68B1422C2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07169356-0CC7-406C-9495-2DFE4BA10CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
   <si>
     <t>Number</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Object</t>
   </si>
   <si>
-    <t>Style</t>
+    <t>Status</t>
   </si>
   <si>
     <t>Price</t>
@@ -74,13 +74,34 @@
     <t>Must be integer, the sum should be 100</t>
   </si>
   <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>NOTACTIVE</t>
-  </si>
-  <si>
     <t>A/C "Future"(1 Section)</t>
+  </si>
+  <si>
+    <t>Sold</t>
+  </si>
+  <si>
+    <t>A/C "Quiet"(1 Section)</t>
+  </si>
+  <si>
+    <t>A/C "Family"(1 Section)</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Reserve</t>
+  </si>
+  <si>
+    <t>A/C "Future"(3 Section)</t>
+  </si>
+  <si>
+    <t>A/C "Central"(1 Section)</t>
+  </si>
+  <si>
+    <t>A/C "Happy"(1 Section)</t>
+  </si>
+  <si>
+    <t>Not active</t>
   </si>
 </sst>
 </file>
@@ -123,22 +144,22 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor indexed="31"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="solid">
         <fgColor indexed="31"/>
       </patternFill>
     </fill>
@@ -155,22 +176,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -485,15 +505,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="1" max="10" customWidth="true" width="23.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
@@ -553,137 +573,937 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="6">
+        <v>34</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7">
+        <v>55.3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="7">
+        <v>50000</v>
+      </c>
+      <c r="H3" s="7">
+        <v>40000</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>35</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>50</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="7">
+        <v>50000</v>
+      </c>
+      <c r="H4" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>50.1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7">
+        <v>42000</v>
+      </c>
+      <c r="H5" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>51</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7">
+        <v>60000</v>
+      </c>
+      <c r="H6" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>54</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="7">
+        <v>60000</v>
+      </c>
+      <c r="H7" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>40</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>52</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7">
+        <v>49000</v>
+      </c>
+      <c r="H8" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I8" s="7">
+        <v>11</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>41</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7">
+        <v>48000</v>
+      </c>
+      <c r="H9" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>456</v>
+      </c>
+      <c r="B10" s="7">
+        <v>456</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3456</v>
+      </c>
+      <c r="D10" s="7">
+        <v>456</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7">
+        <v>20000</v>
+      </c>
+      <c r="H10" s="7">
+        <v>10000</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7">
+        <v>23</v>
+      </c>
+      <c r="D11" s="7">
+        <v>50</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="7">
+        <v>110000</v>
+      </c>
+      <c r="H11" s="7">
+        <v>100000</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>7457</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4563</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2346</v>
+      </c>
+      <c r="D12" s="7">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="7">
+        <v>50000</v>
+      </c>
+      <c r="H12" s="7">
+        <v>40000</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>35</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>50</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7">
+        <v>41000</v>
+      </c>
+      <c r="H13" s="7">
+        <v>41000</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>36</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>100</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7">
+        <v>70000</v>
+      </c>
+      <c r="H14" s="7">
+        <v>50000</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="7">
+        <v>20000</v>
+      </c>
+      <c r="H15" s="7">
+        <v>10000</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="7">
+        <v>50000</v>
+      </c>
+      <c r="H16" s="7">
+        <v>40000</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7">
+        <v>100000</v>
+      </c>
+      <c r="H17" s="7">
+        <v>90000</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>100</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="7">
+        <v>60000</v>
+      </c>
+      <c r="H18" s="7">
+        <v>50000</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2</v>
+      </c>
+      <c r="C19" s="7">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7">
+        <v>100</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="7">
+        <v>50000</v>
+      </c>
+      <c r="H19" s="7">
+        <v>40000</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>4</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>100</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="7">
+        <v>400000</v>
+      </c>
+      <c r="H20" s="7">
+        <v>390000</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>523</v>
+      </c>
+      <c r="B21" s="7">
+        <v>34</v>
+      </c>
+      <c r="C21" s="7">
+        <v>32</v>
+      </c>
+      <c r="D21" s="7">
+        <v>100</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="7">
+        <v>50000</v>
+      </c>
+      <c r="H21" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>345678</v>
+      </c>
+      <c r="B22" s="7">
+        <v>345</v>
+      </c>
+      <c r="C22" s="7">
+        <v>36</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3634</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1660738</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1253730</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>345</v>
+      </c>
+      <c r="B23" s="7">
+        <v>3457</v>
+      </c>
+      <c r="C23" s="7">
+        <v>3457</v>
+      </c>
+      <c r="D23" s="7">
+        <v>5345</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="H23" s="7">
+        <v>4000000</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>2345</v>
+      </c>
+      <c r="B24" s="7">
+        <v>235</v>
+      </c>
+      <c r="C24" s="7">
+        <v>235</v>
+      </c>
+      <c r="D24" s="7">
+        <v>500</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="H24" s="7">
+        <v>4000000</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>543</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B25" s="7">
         <v>234</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C25" s="7">
         <v>235</v>
       </c>
-      <c r="D3" s="10">
-        <v>46</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D25" s="7">
+        <v>100</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1500000</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1450000</v>
+      </c>
+      <c r="I25" s="7">
+        <v>100</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>324</v>
+      </c>
+      <c r="B26" s="7">
+        <v>345</v>
+      </c>
+      <c r="C26" s="7">
+        <v>347</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2634</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="7">
+        <v>345</v>
+      </c>
+      <c r="H26" s="7">
+        <v>23</v>
+      </c>
+      <c r="I26" s="7">
+        <v>4</v>
+      </c>
+      <c r="J26" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>236</v>
+      </c>
+      <c r="B27" s="7">
+        <v>234</v>
+      </c>
+      <c r="C27" s="7">
+        <v>346</v>
+      </c>
+      <c r="D27" s="7">
+        <v>235.53</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="7">
+        <v>235</v>
+      </c>
+      <c r="H27" s="7">
+        <v>234</v>
+      </c>
+      <c r="I27" s="7">
+        <v>100</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>345</v>
+      </c>
+      <c r="B28" s="7">
+        <v>3245</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2354</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3264</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="6">
+        <v>242</v>
+      </c>
+      <c r="H28" s="6">
+        <v>253</v>
+      </c>
+      <c r="I28" s="7">
+        <v>2</v>
+      </c>
+      <c r="J28" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>457</v>
+      </c>
+      <c r="B29" s="7">
+        <v>457</v>
+      </c>
+      <c r="C29" s="7">
+        <v>475</v>
+      </c>
+      <c r="D29" s="7">
+        <v>47</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="7">
+        <v>585744</v>
+      </c>
+      <c r="H29" s="7">
+        <v>485</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>3462346</v>
+      </c>
+      <c r="B30" s="7">
+        <v>2346</v>
+      </c>
+      <c r="C30" s="7">
+        <v>3245</v>
+      </c>
+      <c r="D30" s="7">
+        <v>100</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="7">
+        <v>50000</v>
+      </c>
+      <c r="H30" s="7">
+        <v>40000</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>346</v>
+      </c>
+      <c r="B31" s="7">
+        <v>346</v>
+      </c>
+      <c r="C31" s="7">
+        <v>346</v>
+      </c>
+      <c r="D31" s="7">
+        <v>346</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="10">
-        <v>3534</v>
-      </c>
-      <c r="H3" s="10">
-        <v>234</v>
-      </c>
-      <c r="I3" s="10">
-        <v>3</v>
-      </c>
-      <c r="J3" s="10">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>324</v>
-      </c>
-      <c r="B4" s="10">
-        <v>345</v>
-      </c>
-      <c r="C4" s="10">
-        <v>346.53399999999999</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2634</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="10">
-        <v>345</v>
-      </c>
-      <c r="H4" s="10">
-        <v>23</v>
-      </c>
-      <c r="I4" s="10">
-        <v>4</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="F31" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>236.23</v>
-      </c>
-      <c r="B5" s="10">
-        <v>234</v>
-      </c>
-      <c r="C5" s="10">
-        <v>346</v>
-      </c>
-      <c r="D5" s="10">
-        <v>235.53</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="10">
-        <v>235</v>
-      </c>
-      <c r="H5" s="10">
-        <v>234</v>
-      </c>
-      <c r="I5" s="10">
-        <v>100</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="G31" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>345</v>
-      </c>
-      <c r="B6" s="10">
-        <v>3245</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2354</v>
-      </c>
-      <c r="D6" s="10">
-        <v>3264</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="9">
-        <v>242.42</v>
-      </c>
-      <c r="H6" s="9">
-        <v>253</v>
-      </c>
-      <c r="I6" s="10">
-        <v>2</v>
-      </c>
-      <c r="J6" s="10">
-        <v>23</v>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/flatsErrors.xlsx
+++ b/src/main/resources/flatsErrors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Illya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07169356-0CC7-406C-9495-2DFE4BA10CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82086072-E565-47CB-9A94-6AD559F1806E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
   <si>
     <t>Number</t>
   </si>
@@ -74,34 +74,34 @@
     <t>Must be integer, the sum should be 100</t>
   </si>
   <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>A/C "Happy"(1 Section)</t>
+  </si>
+  <si>
+    <t>SOLD</t>
+  </si>
+  <si>
+    <t>A/C "Quiet"(1 Section)</t>
+  </si>
+  <si>
+    <t>NOTACTIVE</t>
+  </si>
+  <si>
+    <t>A/C "Family"(1 Section)</t>
+  </si>
+  <si>
     <t>A/C "Future"(1 Section)</t>
   </si>
   <si>
-    <t>Sold</t>
-  </si>
-  <si>
-    <t>A/C "Quiet"(1 Section)</t>
-  </si>
-  <si>
-    <t>A/C "Family"(1 Section)</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Reserve</t>
+    <t>A/C "Central"(1 Section)</t>
   </si>
   <si>
     <t>A/C "Future"(3 Section)</t>
   </si>
   <si>
-    <t>A/C "Central"(1 Section)</t>
-  </si>
-  <si>
-    <t>A/C "Happy"(1 Section)</t>
-  </si>
-  <si>
-    <t>Not active</t>
+    <t>RESERVE</t>
   </si>
 </sst>
 </file>
@@ -505,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,10 +592,10 @@
         <v>55.3</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="G3" s="7">
         <v>50000</v>
@@ -624,10 +624,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G4" s="7">
         <v>50000</v>
@@ -656,10 +656,10 @@
         <v>50.1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G5" s="7">
         <v>42000</v>
@@ -688,10 +688,10 @@
         <v>51</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="6" t="s">
         <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G6" s="7">
         <v>60000</v>
@@ -720,10 +720,10 @@
         <v>54</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G7" s="7">
         <v>60000</v>
@@ -752,10 +752,10 @@
         <v>52</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G8" s="7">
         <v>49000</v>
@@ -784,10 +784,10 @@
         <v>51</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G9" s="7">
         <v>48000</v>
@@ -816,10 +816,10 @@
         <v>456</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G10" s="7">
         <v>20000</v>
@@ -848,10 +848,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G11" s="7">
         <v>110000</v>
@@ -880,10 +880,10 @@
         <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G12" s="7">
         <v>50000</v>
@@ -912,10 +912,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="G13" s="7">
         <v>41000</v>
@@ -944,10 +944,10 @@
         <v>100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G14" s="7">
         <v>70000</v>
@@ -976,10 +976,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G15" s="7">
         <v>20000</v>
@@ -1010,8 +1010,8 @@
       <c r="E16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>20</v>
+      <c r="F16" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G16" s="7">
         <v>50000</v>
@@ -1037,13 +1037,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="6" t="s">
         <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="G17" s="7">
         <v>100000</v>
@@ -1072,10 +1072,10 @@
         <v>100</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G18" s="7">
         <v>60000</v>
@@ -1104,10 +1104,10 @@
         <v>100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G19" s="7">
         <v>50000</v>
@@ -1136,16 +1136,16 @@
         <v>100</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G20" s="7">
-        <v>400000</v>
+        <v>40000</v>
       </c>
       <c r="H20" s="7">
-        <v>390000</v>
+        <v>39000</v>
       </c>
       <c r="I20" s="7">
         <v>1</v>
@@ -1168,10 +1168,10 @@
         <v>100</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G21" s="7">
         <v>50000</v>
@@ -1191,25 +1191,25 @@
         <v>345678</v>
       </c>
       <c r="B22" s="7">
-        <v>345</v>
+        <v>2</v>
       </c>
       <c r="C22" s="7">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D22" s="7">
-        <v>3634</v>
+        <v>70</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G22" s="7">
-        <v>1660738</v>
+        <v>46000</v>
       </c>
       <c r="H22" s="7">
-        <v>1253730</v>
+        <v>40000</v>
       </c>
       <c r="I22" s="7">
         <v>2</v>
@@ -1223,25 +1223,25 @@
         <v>345</v>
       </c>
       <c r="B23" s="7">
-        <v>3457</v>
+        <v>2</v>
       </c>
       <c r="C23" s="7">
-        <v>3457</v>
+        <v>12</v>
       </c>
       <c r="D23" s="7">
-        <v>5345</v>
+        <v>120</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G23" s="7">
-        <v>5000000</v>
+        <v>50000</v>
       </c>
       <c r="H23" s="7">
-        <v>4000000</v>
+        <v>45000</v>
       </c>
       <c r="I23" s="7">
         <v>2</v>
@@ -1255,25 +1255,25 @@
         <v>2345</v>
       </c>
       <c r="B24" s="7">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="C24" s="7">
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G24" s="7">
-        <v>5000000</v>
+        <v>50000</v>
       </c>
       <c r="H24" s="7">
-        <v>4000000</v>
+        <v>45000</v>
       </c>
       <c r="I24" s="7">
         <v>2</v>
@@ -1296,16 +1296,16 @@
         <v>100</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G25" s="7">
-        <v>1500000</v>
+        <v>65000</v>
       </c>
       <c r="H25" s="7">
-        <v>1450000</v>
+        <v>62500</v>
       </c>
       <c r="I25" s="7">
         <v>100</v>
@@ -1319,25 +1319,25 @@
         <v>324</v>
       </c>
       <c r="B26" s="7">
-        <v>345</v>
+        <v>2</v>
       </c>
       <c r="C26" s="7">
-        <v>347</v>
+        <v>6</v>
       </c>
       <c r="D26" s="7">
-        <v>2634</v>
+        <v>95</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G26" s="7">
-        <v>345</v>
+        <v>47000</v>
       </c>
       <c r="H26" s="7">
-        <v>23</v>
+        <v>45000</v>
       </c>
       <c r="I26" s="7">
         <v>4</v>
@@ -1357,19 +1357,19 @@
         <v>346</v>
       </c>
       <c r="D27" s="7">
-        <v>235.53</v>
+        <v>70</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G27" s="7">
-        <v>235</v>
+        <v>25000</v>
       </c>
       <c r="H27" s="7">
-        <v>234</v>
+        <v>24000</v>
       </c>
       <c r="I27" s="7">
         <v>100</v>
@@ -1389,19 +1389,19 @@
         <v>2354</v>
       </c>
       <c r="D28" s="7">
-        <v>3264</v>
+        <v>60</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="6">
-        <v>242</v>
-      </c>
-      <c r="H28" s="6">
-        <v>253</v>
+        <v>22</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="7">
+        <v>20000</v>
+      </c>
+      <c r="H28" s="7">
+        <v>19000</v>
       </c>
       <c r="I28" s="7">
         <v>2</v>
@@ -1421,19 +1421,19 @@
         <v>475</v>
       </c>
       <c r="D29" s="7">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G29" s="7">
-        <v>585744</v>
+        <v>50000</v>
       </c>
       <c r="H29" s="7">
-        <v>485</v>
+        <v>45000</v>
       </c>
       <c r="I29" s="7">
         <v>2</v>
@@ -1456,10 +1456,10 @@
         <v>100</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="G30" s="7">
         <v>50000</v>
@@ -1479,30 +1479,94 @@
         <v>346</v>
       </c>
       <c r="B31" s="7">
+        <v>5</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>140</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="7">
+        <v>70000</v>
+      </c>
+      <c r="H31" s="7">
+        <v>68000</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>3466</v>
+      </c>
+      <c r="B32" s="7">
         <v>346</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C32" s="7">
         <v>346</v>
       </c>
-      <c r="D31" s="7">
-        <v>346</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="D32" s="7">
+        <v>100</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>2</v>
-      </c>
-      <c r="J31" s="7">
+      <c r="G32" s="7">
+        <v>50000</v>
+      </c>
+      <c r="H32" s="7">
+        <v>45000</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>2</v>
+      </c>
+      <c r="B33" s="7">
+        <v>2</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>80</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="7">
+        <v>50000</v>
+      </c>
+      <c r="H33" s="7">
+        <v>40000</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2</v>
+      </c>
+      <c r="J33" s="7">
         <v>1</v>
       </c>
     </row>

--- a/src/main/resources/flatsErrors.xlsx
+++ b/src/main/resources/flatsErrors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Illya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82086072-E565-47CB-9A94-6AD559F1806E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECFE259-612B-4281-A5DB-40D6AABC83F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
   <si>
     <t>Number</t>
   </si>
@@ -74,34 +74,34 @@
     <t>Must be integer, the sum should be 100</t>
   </si>
   <si>
+    <t>A/C "Future"(1 Section)</t>
+  </si>
+  <si>
+    <t>SOLD</t>
+  </si>
+  <si>
+    <t>A/C "Quiet"(1 Section)</t>
+  </si>
+  <si>
+    <t>A/C "Family"(1 Section)</t>
+  </si>
+  <si>
     <t>ACTIVE</t>
   </si>
   <si>
+    <t>RESERVE</t>
+  </si>
+  <si>
+    <t>A/C "Future"(3 Section)</t>
+  </si>
+  <si>
+    <t>A/C "Central"(1 Section)</t>
+  </si>
+  <si>
     <t>A/C "Happy"(1 Section)</t>
   </si>
   <si>
-    <t>SOLD</t>
-  </si>
-  <si>
-    <t>A/C "Quiet"(1 Section)</t>
-  </si>
-  <si>
     <t>NOTACTIVE</t>
-  </si>
-  <si>
-    <t>A/C "Family"(1 Section)</t>
-  </si>
-  <si>
-    <t>A/C "Future"(1 Section)</t>
-  </si>
-  <si>
-    <t>A/C "Central"(1 Section)</t>
-  </si>
-  <si>
-    <t>A/C "Future"(3 Section)</t>
-  </si>
-  <si>
-    <t>RESERVE</t>
   </si>
 </sst>
 </file>
@@ -505,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,10 +592,10 @@
         <v>55.3</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="7">
         <v>50000</v>
@@ -624,10 +624,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7">
         <v>50000</v>
@@ -656,10 +656,10 @@
         <v>50.1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7">
         <v>42000</v>
@@ -688,10 +688,10 @@
         <v>51</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="G6" s="7">
         <v>60000</v>
@@ -720,10 +720,10 @@
         <v>54</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7">
         <v>60000</v>
@@ -752,10 +752,10 @@
         <v>52</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7">
         <v>49000</v>
@@ -784,10 +784,10 @@
         <v>51</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7">
         <v>48000</v>
@@ -816,10 +816,10 @@
         <v>456</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G10" s="7">
         <v>20000</v>
@@ -848,10 +848,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7">
         <v>110000</v>
@@ -880,10 +880,10 @@
         <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7">
         <v>50000</v>
@@ -912,10 +912,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="7">
         <v>41000</v>
@@ -944,10 +944,10 @@
         <v>100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7">
         <v>70000</v>
@@ -976,10 +976,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G15" s="7">
         <v>20000</v>
@@ -1011,7 +1011,7 @@
         <v>23</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G16" s="7">
         <v>50000</v>
@@ -1040,10 +1040,10 @@
         <v>160</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="G17" s="7">
         <v>100000</v>
@@ -1072,10 +1072,10 @@
         <v>100</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7">
         <v>60000</v>
@@ -1104,10 +1104,10 @@
         <v>100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G19" s="7">
         <v>50000</v>
@@ -1136,10 +1136,10 @@
         <v>100</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G20" s="7">
         <v>40000</v>
@@ -1168,10 +1168,10 @@
         <v>100</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G21" s="7">
         <v>50000</v>
@@ -1200,10 +1200,10 @@
         <v>70</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="G22" s="7">
         <v>46000</v>
@@ -1232,10 +1232,10 @@
         <v>120</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7">
         <v>50000</v>
@@ -1264,10 +1264,10 @@
         <v>80</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="7">
         <v>50000</v>
@@ -1296,10 +1296,10 @@
         <v>100</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G25" s="7">
         <v>65000</v>
@@ -1328,10 +1328,10 @@
         <v>95</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G26" s="7">
         <v>47000</v>
@@ -1360,10 +1360,10 @@
         <v>70</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G27" s="7">
         <v>25000</v>
@@ -1392,10 +1392,10 @@
         <v>60</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" s="7">
         <v>20000</v>
@@ -1424,10 +1424,10 @@
         <v>200</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G29" s="7">
         <v>50000</v>
@@ -1456,10 +1456,10 @@
         <v>100</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G30" s="7">
         <v>50000</v>
@@ -1488,10 +1488,10 @@
         <v>140</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G31" s="7">
         <v>70000</v>
@@ -1520,10 +1520,10 @@
         <v>100</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G32" s="7">
         <v>50000</v>
@@ -1552,10 +1552,10 @@
         <v>80</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G33" s="7">
         <v>50000</v>
@@ -1567,6 +1567,38 @@
         <v>2</v>
       </c>
       <c r="J33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>50</v>
+      </c>
+      <c r="B34" s="7">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7">
+        <v>5</v>
+      </c>
+      <c r="D34" s="7">
+        <v>55.3</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="7">
+        <v>50000</v>
+      </c>
+      <c r="H34" s="7">
+        <v>40000</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+      <c r="J34" s="7">
         <v>1</v>
       </c>
     </row>
